--- a/OutputFiles/TC01_Canine_Filter_Gender-CastratedMale_WebData.xlsx
+++ b/OutputFiles/TC01_Canine_Filter_Gender-CastratedMale_WebData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="119">
   <si>
     <t>Case ID</t>
   </si>
@@ -41,18 +41,201 @@
     <t>Neutered Status</t>
   </si>
   <si>
+    <t>COTC007B0202</t>
+  </si>
+  <si>
+    <t>COTC007B</t>
+  </si>
+  <si>
+    <t>Clinical Trial</t>
+  </si>
+  <si>
+    <t>Golden Retriever</t>
+  </si>
+  <si>
+    <t>Lymphoma</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>Castrated male</t>
+  </si>
+  <si>
+    <t>COTC007B0203</t>
+  </si>
+  <si>
+    <t>Black and Tan Coonhound</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>COTC007B0204</t>
+  </si>
+  <si>
+    <t>Australian Shepherd</t>
+  </si>
+  <si>
+    <t>10.6</t>
+  </si>
+  <si>
+    <t>COTC007B0209</t>
+  </si>
+  <si>
+    <t>Doberman Pinscher</t>
+  </si>
+  <si>
+    <t>Stage 3</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>COTC007B0211</t>
+  </si>
+  <si>
+    <t>Beagle</t>
+  </si>
+  <si>
+    <t>9.9</t>
+  </si>
+  <si>
+    <t>COTC007B0214</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>8.9</t>
+  </si>
+  <si>
+    <t>COTC007B0217</t>
+  </si>
+  <si>
+    <t>Boxer</t>
+  </si>
+  <si>
+    <t>COTC007B0218</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>COTC007B0219</t>
+  </si>
+  <si>
+    <t>IIIA</t>
+  </si>
+  <si>
+    <t>COTC007B0220</t>
+  </si>
+  <si>
+    <t>Mixed Breed</t>
+  </si>
+  <si>
+    <t>Multicentric lymphoma</t>
+  </si>
+  <si>
+    <t>12.2</t>
+  </si>
+  <si>
+    <t>COTC007B0304</t>
+  </si>
+  <si>
+    <t>Lymphomatoid granulomatosis</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>COTC007B0401</t>
+  </si>
+  <si>
+    <t>Malignant lymphoma</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>COTC007B0404</t>
+  </si>
+  <si>
+    <t>IVB</t>
+  </si>
+  <si>
+    <t>COTC007B0405</t>
+  </si>
+  <si>
+    <t>IIIB</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>COTC007B0409</t>
+  </si>
+  <si>
+    <t>American Staffordshire Terrier</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>COTC007B0412</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>COTC007B0413</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>COTC007B0414</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>COTC007B0501</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>COTC007B0504</t>
+  </si>
+  <si>
+    <t>Bernese Mountain Dog</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>COTC007B0505</t>
+  </si>
+  <si>
+    <t>Rottweiler</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>COTC007B0510</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
     <t>COTC007B0511</t>
   </si>
   <si>
-    <t>COTC007B</t>
-  </si>
-  <si>
-    <t>Clinical Trial</t>
-  </si>
-  <si>
-    <t>Golden Retriever</t>
-  </si>
-  <si>
     <t>Stage 5</t>
   </si>
   <si>
@@ -62,9 +245,6 @@
     <t>12</t>
   </si>
   <si>
-    <t>Castrated male</t>
-  </si>
-  <si>
     <t>COTC007B0512</t>
   </si>
   <si>
@@ -77,55 +257,118 @@
     <t>7.1</t>
   </si>
   <si>
-    <t>COTC007B0605</t>
-  </si>
-  <si>
-    <t>Mixed Breed</t>
+    <t>COTC007B0513</t>
+  </si>
+  <si>
+    <t>COTC007B0601</t>
+  </si>
+  <si>
+    <t>English Setter</t>
+  </si>
+  <si>
+    <t>7.8</t>
+  </si>
+  <si>
+    <t>COTC007B0602</t>
+  </si>
+  <si>
+    <t>COTC007B0603</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>COTC007B0604</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>COTC007B0607</t>
+  </si>
+  <si>
+    <t>Border Collie</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>COTC007B0608</t>
+  </si>
+  <si>
+    <t>Stage 4</t>
   </si>
   <si>
     <t>IVA</t>
   </si>
   <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>Spayed female</t>
-  </si>
-  <si>
-    <t>COTC007B0616</t>
-  </si>
-  <si>
-    <t>Basset Hound</t>
-  </si>
-  <si>
-    <t>9.7</t>
-  </si>
-  <si>
-    <t>Male Phenotype</t>
-  </si>
-  <si>
-    <t>COTC007B1003</t>
-  </si>
-  <si>
-    <t>Rottweiler</t>
+    <t>COTC007B0609</t>
+  </si>
+  <si>
+    <t>Bullmastiff</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>COTC007B0610</t>
+  </si>
+  <si>
+    <t>Cavalier King Charles Spaniel</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>COTC007B0612</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>COTC007B0613</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>COTC007B0614</t>
+  </si>
+  <si>
+    <t>11.5</t>
+  </si>
+  <si>
+    <t>COTC007B0902</t>
+  </si>
+  <si>
+    <t>COTC007B1002</t>
   </si>
   <si>
     <t>IV</t>
   </si>
   <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>Female Phenotype</t>
-  </si>
-  <si>
-    <t>COTC007B1606</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>COTC007B1607</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>COTC007B1601</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>COTC007B1603</t>
+  </si>
+  <si>
+    <t>COTC007B1604</t>
+  </si>
+  <si>
+    <t>COTC007B1605</t>
+  </si>
+  <si>
+    <t>COTC007B1609</t>
+  </si>
+  <si>
+    <t>Vizsla</t>
   </si>
 </sst>
 </file>
@@ -170,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -248,10 +491,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
       </c>
       <c r="H3" t="s">
         <v>16</v>
@@ -259,59 +502,59 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -320,24 +563,24 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -349,21 +592,21 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -372,19 +615,955 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
         <v>36</v>
       </c>
-      <c r="H8" t="s">
-        <v>25</v>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" t="s">
+        <v>92</v>
+      </c>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" t="s">
+        <v>98</v>
+      </c>
+      <c r="H33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" t="s">
+        <v>101</v>
+      </c>
+      <c r="H34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" t="s">
+        <v>103</v>
+      </c>
+      <c r="H35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>95</v>
+      </c>
+      <c r="G37" t="s">
+        <v>107</v>
+      </c>
+      <c r="H37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" t="s">
+        <v>110</v>
+      </c>
+      <c r="G39" t="s">
+        <v>111</v>
+      </c>
+      <c r="H39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" t="s">
+        <v>113</v>
+      </c>
+      <c r="H40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>118</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
